--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="8970"/>
+    <workbookView windowWidth="21765" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>找款时间</t>
   </si>
@@ -78,15 +78,6 @@
     <t>店铺售价（单鞋女高跟）</t>
   </si>
   <si>
-    <t xml:space="preserve"> 标题</t>
-  </si>
-  <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>尺码</t>
-  </si>
-  <si>
     <t>https://detail.1688.com/offer/546944919687.html?spm=b26110380.sw1688.mof001.7173.AThEyn&amp;sk=consign</t>
   </si>
   <si>
@@ -96,15 +87,6 @@
     <t>春季新款漆皮系带厚底防水台松糕休闲女鞋潮</t>
   </si>
   <si>
-    <t>春之北纬单鞋女秋季高跟女鞋韩版漆皮系带厚底防水台松糕休闲女鞋皮鞋CWW2832YZ-1</t>
-  </si>
-  <si>
-    <t>红色   黑色   香槟</t>
-  </si>
-  <si>
-    <t>35 36 37 38 39</t>
-  </si>
-  <si>
     <t>春之北纬单鞋女秋季高跟女鞋韩版漆皮系带厚底防水台松糕休闲女鞋皮鞋</t>
   </si>
   <si>
@@ -117,12 +99,6 @@
     <t>新款风女鞋秋冬季休闲粗跟中跟厂家直销</t>
   </si>
   <si>
-    <t>春之北纬单鞋女秋季高跟女鞋韩版新款风女鞋秋冬季休闲粗跟中跟皮鞋CWW2833YZ-1</t>
-  </si>
-  <si>
-    <t>黑色   棕色</t>
-  </si>
-  <si>
     <t>春之北纬单鞋女秋季高跟女鞋韩版新款风女鞋秋冬季休闲粗跟中跟皮鞋</t>
   </si>
   <si>
@@ -135,16 +111,7 @@
     <t>秋季新款厚底女鞋坡跟休闲女深口系带圆头舒适松糕鞋女</t>
   </si>
   <si>
-    <t>春之北纬单鞋女秋季高跟女鞋韩版厚底坡跟深口系带圆头舒适松糕鞋皮鞋CWW2834YZ-1</t>
-  </si>
-  <si>
-    <t>白色   黑色   枪色</t>
-  </si>
-  <si>
     <t>春之北纬单鞋女秋季高跟女鞋韩版厚底坡跟深口系带圆头舒适松糕鞋皮鞋</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -152,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,52 +167,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,93 +302,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,7 +318,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +360,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +444,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,127 +480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,54 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,11 +529,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +559,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,137 +629,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +785,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1185,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y$1:AA$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="60" customHeight="1" outlineLevelRow="4"/>
@@ -1200,13 +1150,12 @@
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="23" width="13.25" customWidth="1"/>
     <col min="24" max="24" width="23" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="13.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="29" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.25" hidden="1" customWidth="1"/>
-    <col min="31" max="16375" width="13.25" customWidth="1"/>
+    <col min="25" max="25" width="29" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="13.25" hidden="1" customWidth="1"/>
+    <col min="28" max="16372" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:27">
+    <row r="1" ht="35" customHeight="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,19 +1225,10 @@
       <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="9" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="7:26">
+      <c r="G2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="7:29">
-      <c r="G2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -1301,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L2" s="7">
         <v>16</v>
@@ -1340,28 +1280,19 @@
         <v>35</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2">
-        <f>LEN(AB2)</f>
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <f>LEN(Y2)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="7:29">
+    <row r="3" customHeight="1" spans="7:26">
       <c r="G3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -1374,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L3" s="7">
         <v>16</v>
@@ -1413,28 +1344,19 @@
         <v>35</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3">
+        <f>LEN(Y3)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="7:26">
+      <c r="G4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3">
-        <f>LEN(AB3)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="7:29">
-      <c r="G4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -1447,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7">
         <v>17.5</v>
@@ -1486,32 +1408,20 @@
         <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4">
-        <f>LEN(AB4)</f>
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <f>LEN(Y4)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="12:25">
+    <row r="5" customHeight="1" spans="12:12">
       <c r="L5" s="7">
         <f>(H5+I5-0.65*M5)/0.65</f>
         <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
